--- a/biology/Botanique/Square_Jean-Cocteau/Square_Jean-Cocteau.xlsx
+++ b/biology/Botanique/Square_Jean-Cocteau/Square_Jean-Cocteau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Jean-Cocteau est un espace vertsquare du quartier de Javel du  15e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé entre la rue Saint-Charles, l’avenue Félix-Faure et la rue Balard, à proximité de plusieurs écoles, ce square est un lieu de passage très fréquenté, particulièrement à la sortie des écoles.
 Il est desservi par la ligne 8 à la station Lourmel.
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce square porte le nom du poète, graphiste, dessinateur, dramaturge et cinéaste français Jean Cocteau (1889-1963). 
 </t>
@@ -575,10 +591,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce square ouvert en 1983 et large de 6 020 m2 a été créé à l’occasion du changement d’affectation des anciennes usines Citroën.
-Le square forme avec le mail de la rue Modigliani, rue piétonne créée à la même occasion, l'espace vert « square Jean-Cocteau et mail Modigliani[1] ». Une sculpture faisant office de fontaine, Les Polypores de Jean-Yves Lechevallier, aussi nommée « fontaine Modigliani », marque dans la rue Modigliani l'entrée de cet espace vert du côté de la rue Saint-Charles.
+Le square forme avec le mail de la rue Modigliani, rue piétonne créée à la même occasion, l'espace vert « square Jean-Cocteau et mail Modigliani ». Une sculpture faisant office de fontaine, Les Polypores de Jean-Yves Lechevallier, aussi nommée « fontaine Modigliani », marque dans la rue Modigliani l'entrée de cet espace vert du côté de la rue Saint-Charles.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>On trouve une aire de jeux équipée pour enfants.</t>
         </is>
